--- a/Area/Arrows workbench/AllArrows.xlsx
+++ b/Area/Arrows workbench/AllArrows.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Area\Arrows workbench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AREA\Area July 7\Area\Arrows workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E14E4F4-A8A1-4D27-A283-144E711AD091}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF5D2B-F196-46B6-8E23-C9C49A43E695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="8145" windowWidth="18405" windowHeight="5670" xr2:uid="{EC701CDB-2F16-423F-9737-6ADB6A25C0D4}"/>
+    <workbookView xWindow="3240" yWindow="2265" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{EC701CDB-2F16-423F-9737-6ADB6A25C0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="118">
   <si>
     <t>A1</t>
   </si>
@@ -364,13 +365,37 @@
   </si>
   <si>
     <t>220, 385, WEST</t>
+  </si>
+  <si>
+    <t>üü</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>ý</t>
+  </si>
+  <si>
+    <t>B1 B3</t>
+  </si>
+  <si>
+    <t>A2 C2</t>
+  </si>
+  <si>
+    <t>B2 B4 D2</t>
+  </si>
+  <si>
+    <t>C4 E3</t>
+  </si>
+  <si>
+    <t>B3 b5 C4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,13 +416,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -412,10 +469,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84808D2A-8F44-46A8-91EF-B461B8EE6986}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection sqref="A1:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,4 +1495,820 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAAE663-351C-4210-9DA7-068DF09C10D8}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="4" max="15" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="7"/>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="6"/>
+      <c r="D36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Area/Arrows workbench/AllArrows.xlsx
+++ b/Area/Arrows workbench/AllArrows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AREA\Area July 7\Area\Arrows workbench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Area\Arrows workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF5D2B-F196-46B6-8E23-C9C49A43E695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339A260-56D4-4381-A701-0A4036E3B29A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2265" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{EC701CDB-2F16-423F-9737-6ADB6A25C0D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EC701CDB-2F16-423F-9737-6ADB6A25C0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="121">
   <si>
     <t>A1</t>
   </si>
@@ -389,6 +389,15 @@
   </si>
   <si>
     <t>B3 b5 C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5 </t>
+  </si>
+  <si>
+    <t>D3 B4</t>
+  </si>
+  <si>
+    <t>C2 E2</t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAAE663-351C-4210-9DA7-068DF09C10D8}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1826,7 +1835,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1864,7 +1873,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1907,7 +1916,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1950,7 +1959,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2005,8 +2014,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
+      <c r="A25" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>111</v>
@@ -2042,8 +2051,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
+      <c r="A27" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>111</v>
@@ -2135,7 +2144,7 @@
     </row>
     <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>111</v>
